--- a/biology/Zoologie/Hadruroides_lunatus/Hadruroides_lunatus.xlsx
+++ b/biology/Zoologie/Hadruroides_lunatus/Hadruroides_lunatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hadruroides lunatus est une espèce de scorpions de la famille des Caraboctonidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la région de Lima au Pérou[1].
-De nombreux spécimens de diverses zones ont été, par le passé, rattachés à cette espèce par erreur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la région de Lima au Pérou.
+De nombreux spécimens de diverses zones ont été, par le passé, rattachés à cette espèce par erreur.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure 47,5 mm et la femelle 36,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure 47,5 mm et la femelle 36,0 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Telegonus lunatus par L. Koch en 1867. Elle est placée dans le genre Hadruroides par Kraepelin en 1894[3], qui dans le même temps place en synonymie Hadrurus parvulus et Hadrurus robustus.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Telegonus lunatus par L. Koch en 1867. Elle est placée dans le genre Hadruroides par Kraepelin en 1894, qui dans le même temps place en synonymie Hadrurus parvulus et Hadrurus robustus.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L. Koch, 1867 : Beschreibungen neuer Arachniden und Myriapoden. II. Verhandlungen der Kaiserlich-Königlichen Zoologisch-Botanischen Gesellschaft in Wien, vol. 17, p. 173-250 (texte intégral).</t>
         </is>
